--- a/biology/Botanique/Germandrée_scorodoine/Germandrée_scorodoine.xlsx
+++ b/biology/Botanique/Germandrée_scorodoine/Germandrée_scorodoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_scorodoine</t>
+          <t>Germandrée_scorodoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium scorodonia
 La Germandrée scorodoine (Teucrium scorodonia), aussi appelée Sauge des bois, Sauge sauvage, Baume sauvage ou Faux scordium, est une plante de la famille des Lamiacées. Elle pousse en Europe dans les landes et sous-bois éclairés acides (sols pauvres).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_scorodoine</t>
+          <t>Germandrée_scorodoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le substantif scorodonia vient du grec σκόροδον qui désigne l'ail, car les feuilles, aromatiques, ont un certain goût d'ail.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_scorodoine</t>
+          <t>Germandrée_scorodoine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,22 +557,138 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante mellifère moyenne (15–50 cm) à feuilles opposées ressemblant à celles de la sauge officinale. Les fleurs sont blanc-jaunâtre avec des étamines à filet violet.
-Caractéristiques
-Organes reproducteurs
-Couleur dominante des fleurs : blanc
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Germandrée_scorodoine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_scorodoine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : blanc
 Période de floraison : juillet-octobre
 Inflorescence : glomérules spiciformes
 Sexualité : hermaphrodite
 Ordre de maturation : protandre
-Pollinisation : entomogame
-Graine
-Fruit : akène
-Dissémination : barochore
-Habitat et répartition
-Habitat type : ourlets externes acidophiles médioeuropéens
+Pollinisation : entomogame</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Germandrée_scorodoine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_scorodoine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fruit : akène
+Dissémination : barochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Germandrée_scorodoine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_scorodoine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : ourlets externes acidophiles médioeuropéens
 Aire de répartition : européen occidental
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
 Sur les autres projets Wikimedia :
